--- a/Analysis/Q1/Q1-OverallSimulationStats.xlsx
+++ b/Analysis/Q1/Q1-OverallSimulationStats.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sal46633/Documents/GitHub/MobsSimulator-Python/Analysis/Q1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sal46633/Documents/pythonEnvs/Google_Env/lib/python3.7/site-packages/MyPythonCode/Analysis/Q1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA49554-34E1-6742-8CE3-EF133CE14059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83A4931-D7A1-B549-9351-97F896A3C916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="33440" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1-OverallSimulationStats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Q1-OverallSimulationStats'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Q1-OverallSimulationStats'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Q1-OverallSimulationStats'!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Q1-OverallSimulationStats'!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Q1-OverallSimulationStats'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Q1-OverallSimulationStats'!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Q1-OverallSimulationStats'!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Q1-OverallSimulationStats'!$D$2:$D$11</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Q1-OverallSimulationStats'!$B$1</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Q1-OverallSimulationStats'!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">'Q1-OverallSimulationStats'!$C$1</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">'Q1-OverallSimulationStats'!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">'Q1-OverallSimulationStats'!$D$1</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">'Q1-OverallSimulationStats'!$D$2:$D$11</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Q1-OverallSimulationStats'!$A$1</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Q1-OverallSimulationStats'!$A$2:$A$11</definedName>
-  </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -667,12 +649,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -758,19 +737,19 @@
                   <c:v>99.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.95</c:v>
+                  <c:v>99.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.23</c:v>
+                  <c:v>81.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.42</c:v>
+                  <c:v>26.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.45</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -790,7 +769,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0298-BB41-8E0A-ECEDDB704E81}"/>
+              <c16:uniqueId val="{00000000-2886-A44F-B021-1A015EE3D9D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -842,18 +821,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -939,19 +915,19 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.05</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.77</c:v>
+                  <c:v>18.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.58</c:v>
+                  <c:v>73.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.55</c:v>
+                  <c:v>98.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>99.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100</c:v>
@@ -971,7 +947,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0298-BB41-8E0A-ECEDDB704E81}"/>
+              <c16:uniqueId val="{00000001-2886-A44F-B021-1A015EE3D9D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1029,12 +1005,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1117,34 +1090,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35.42</c:v>
+                  <c:v>35.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.619999999999997</c:v>
+                  <c:v>35.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.549999999999997</c:v>
+                  <c:v>35.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.43</c:v>
+                  <c:v>35.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.42</c:v>
+                  <c:v>35.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.6</c:v>
+                  <c:v>35.409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.43</c:v>
+                  <c:v>35.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.43</c:v>
+                  <c:v>35.54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.479999999999997</c:v>
+                  <c:v>35.340000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +1125,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0298-BB41-8E0A-ECEDDB704E81}"/>
+              <c16:uniqueId val="{00000002-2886-A44F-B021-1A015EE3D9D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1167,11 +1140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1318907647"/>
-        <c:axId val="1318909295"/>
+        <c:axId val="451545999"/>
+        <c:axId val="451547647"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1318907647"/>
+        <c:axId val="451545999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1186,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1228,7 +1201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318909295"/>
+        <c:crossAx val="451547647"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1236,7 +1209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1318909295"/>
+        <c:axId val="451547647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1237,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1279,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318907647"/>
+        <c:crossAx val="451545999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1306,7 +1279,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1342,7 +1315,7 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr/>
+    <a:bodyPr anchor="t" anchorCtr="1"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -1925,22 +1898,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>185615</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7283E3CC-603B-DD4A-B035-7EE71EC84BDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6EA162-AAEF-69D6-8C3E-0440D43E37FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2297,7 +2270,7 @@
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>35.42</v>
+        <v>35.450000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2305,13 +2278,13 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>98.95</v>
+        <v>99.08</v>
       </c>
       <c r="C3">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="D3">
-        <v>35.619999999999997</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2319,10 +2292,10 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>82.23</v>
+        <v>81.540000000000006</v>
       </c>
       <c r="C4">
-        <v>17.77</v>
+        <v>18.46</v>
       </c>
       <c r="D4">
         <v>35.590000000000003</v>
@@ -2333,13 +2306,13 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>28.42</v>
+        <v>26.92</v>
       </c>
       <c r="C5">
-        <v>71.58</v>
+        <v>73.08</v>
       </c>
       <c r="D5">
-        <v>35.549999999999997</v>
+        <v>35.44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2347,13 +2320,13 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="C6">
-        <v>98.55</v>
+        <v>98.24</v>
       </c>
       <c r="D6">
-        <v>35.43</v>
+        <v>35.65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2361,13 +2334,13 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="D7">
-        <v>35.42</v>
+        <v>35.46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2381,7 +2354,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>35.6</v>
+        <v>35.409999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2395,7 +2368,7 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>35.43</v>
+        <v>35.369999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2409,7 +2382,7 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>35.43</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2423,7 +2396,7 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>35.479999999999997</v>
+        <v>35.340000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Q1/Q1-OverallSimulationStats.xlsx
+++ b/Analysis/Q1/Q1-OverallSimulationStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sal46633/Documents/pythonEnvs/Google_Env/lib/python3.7/site-packages/MyPythonCode/Analysis/Q1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sal46633/Documents/GitHub/MobsSimulator-Python/Analysis/Q1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83A4931-D7A1-B549-9351-97F896A3C916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE008D7E-91C6-8342-9F4C-17BACA14D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="33440" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="36620" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1-OverallSimulationStats" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -649,7 +649,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -788,7 +788,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -827,7 +827,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -966,7 +966,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="76200" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1005,7 +1005,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1186,12 +1186,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1237,12 +1234,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1279,12 +1273,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1897,16 +1888,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1935,9 +1926,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1975,7 +1966,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2081,7 +2072,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2223,7 +2214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2233,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
